--- a/QUBT.xlsx
+++ b/QUBT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Downloads\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF0B087-7156-4AF2-AABD-435D6F047D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A02788-998C-41F4-BD4B-ECD341B09872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11010" xr2:uid="{8C0BEEAF-0EA0-4902-9CD8-CF1FF5B489CA}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{8C0BEEAF-0EA0-4902-9CD8-CF1FF5B489CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,9 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,64 +452,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E911C527-C7BB-4781-992D-F46477C13CBC}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>19.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>99.086466999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <f>+I3*I4</f>
         <v>1932.1861065000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H7" t="s">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H8" t="s">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
